--- a/Pauta Parlo con InfGeneral (Linea 1).xlsx
+++ b/Pauta Parlo con InfGeneral (Linea 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nelson/Documents/REACT/evaluacion3/Proyecto-Evaluacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B99E8C4-D207-1642-BB5D-5086202CEF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D78D63F-98F9-564D-85FD-B8C47349FFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{EBE3E73A-F0FB-4C1E-B847-9E1076CFD6E1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{EBE3E73A-F0FB-4C1E-B847-9E1076CFD6E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato Parlo" sheetId="7" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="238">
   <si>
     <t>BLOQUES 
 DE EVALUACIÓN</t>
@@ -3313,9 +3313,6 @@
     <t>INFORMACION GENERAL</t>
   </si>
   <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
     <r>
       <t>Producto</t>
     </r>
@@ -3478,6 +3475,39 @@
   <si>
     <t xml:space="preserve">Hora de cierre
 </t>
+  </si>
+  <si>
+    <t>GENERAL 1</t>
+  </si>
+  <si>
+    <t>GENERAL 2</t>
+  </si>
+  <si>
+    <t>GENERAL 3</t>
+  </si>
+  <si>
+    <t>GENERAL 4</t>
+  </si>
+  <si>
+    <t>GENERAL 5</t>
+  </si>
+  <si>
+    <t>GENERAL 6</t>
+  </si>
+  <si>
+    <t>GENERAL 7</t>
+  </si>
+  <si>
+    <t>GENERAL 8</t>
+  </si>
+  <si>
+    <t>GENERAL 9</t>
+  </si>
+  <si>
+    <t>GENERAL 10</t>
+  </si>
+  <si>
+    <t>GENERAL 11</t>
   </si>
 </sst>
 </file>
@@ -4817,6 +4847,9 @@
     <xf numFmtId="9" fontId="12" fillId="11" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4868,6 +4901,39 @@
     <xf numFmtId="0" fontId="25" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4877,15 +4943,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4895,34 +4955,43 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4934,44 +5003,56 @@
     <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4979,54 +5060,6 @@
     <xf numFmtId="0" fontId="71" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5062,9 +5095,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5499,8 +5529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC3EB99-ACB9-1B49-A13C-C4B026739EFC}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5544,10 +5574,10 @@
         <v>215</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
@@ -5567,10 +5597,10 @@
         <v>215</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -5590,10 +5620,10 @@
         <v>215</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
@@ -5613,10 +5643,10 @@
         <v>215</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
@@ -5636,10 +5666,10 @@
         <v>215</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
@@ -5659,10 +5689,10 @@
         <v>215</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -5682,10 +5712,10 @@
         <v>215</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
@@ -5705,10 +5735,10 @@
         <v>215</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
@@ -5728,10 +5758,10 @@
         <v>215</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
@@ -5751,10 +5781,10 @@
         <v>215</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E11" s="8">
         <v>0</v>
@@ -5774,10 +5804,10 @@
         <v>215</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="214" t="s">
-        <v>227</v>
+        <v>237</v>
+      </c>
+      <c r="D12" s="132" t="s">
+        <v>226</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
@@ -6158,6 +6188,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6200,7 +6231,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="134" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -6212,7 +6243,7 @@
       <c r="E3" s="8">
         <v>0.06</v>
       </c>
-      <c r="F3" s="135">
+      <c r="F3" s="136">
         <v>0.2</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -6220,7 +6251,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="134"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
@@ -6230,10 +6261,10 @@
       <c r="E4" s="8">
         <v>0.04</v>
       </c>
-      <c r="F4" s="136"/>
+      <c r="F4" s="137"/>
     </row>
     <row r="5" spans="2:7" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="134"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
@@ -6243,10 +6274,10 @@
       <c r="E5" s="8">
         <v>0.1</v>
       </c>
-      <c r="F5" s="137"/>
+      <c r="F5" s="138"/>
     </row>
     <row r="6" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="134" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -6258,12 +6289,12 @@
       <c r="E6" s="12">
         <v>0.12</v>
       </c>
-      <c r="F6" s="139">
+      <c r="F6" s="140">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="134"/>
+      <c r="B7" s="135"/>
       <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
@@ -6273,10 +6304,10 @@
       <c r="E7" s="12">
         <v>0.08</v>
       </c>
-      <c r="F7" s="140"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="134"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
@@ -6286,10 +6317,10 @@
       <c r="E8" s="12">
         <v>0.05</v>
       </c>
-      <c r="F8" s="140"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="138"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
@@ -6299,10 +6330,10 @@
       <c r="E9" s="12">
         <v>0.05</v>
       </c>
-      <c r="F9" s="141"/>
+      <c r="F9" s="142"/>
     </row>
     <row r="10" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="143" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -6314,12 +6345,12 @@
       <c r="E10" s="8">
         <v>0.12</v>
       </c>
-      <c r="F10" s="135">
+      <c r="F10" s="136">
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="143"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
@@ -6329,13 +6360,13 @@
       <c r="E11" s="8">
         <v>0.1</v>
       </c>
-      <c r="F11" s="136"/>
+      <c r="F11" s="137"/>
       <c r="G11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="143"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
@@ -6345,10 +6376,10 @@
       <c r="E12" s="8">
         <v>0.08</v>
       </c>
-      <c r="F12" s="137"/>
+      <c r="F12" s="138"/>
     </row>
     <row r="13" spans="2:7" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="134" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -6360,12 +6391,12 @@
       <c r="E13" s="12">
         <v>0.06</v>
       </c>
-      <c r="F13" s="139">
+      <c r="F13" s="140">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="38" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="134"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
@@ -6375,10 +6406,10 @@
       <c r="E14" s="12">
         <v>0.03</v>
       </c>
-      <c r="F14" s="140"/>
+      <c r="F14" s="141"/>
     </row>
     <row r="15" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="134"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
@@ -6388,10 +6419,10 @@
       <c r="E15" s="12">
         <v>0.03</v>
       </c>
-      <c r="F15" s="140"/>
+      <c r="F15" s="141"/>
     </row>
     <row r="16" spans="2:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="134"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
@@ -6401,7 +6432,7 @@
       <c r="E16" s="12">
         <v>0.08</v>
       </c>
-      <c r="F16" s="141"/>
+      <c r="F16" s="142"/>
       <c r="G16" s="9" t="s">
         <v>8</v>
       </c>
@@ -6414,7 +6445,7 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="145" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -6426,12 +6457,12 @@
       <c r="E18" s="19">
         <v>0.05</v>
       </c>
-      <c r="F18" s="146">
+      <c r="F18" s="147">
         <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="145"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="17" t="s">
         <v>41</v>
       </c>
@@ -6441,7 +6472,7 @@
       <c r="E19" s="21">
         <v>0.05</v>
       </c>
-      <c r="F19" s="147"/>
+      <c r="F19" s="148"/>
     </row>
     <row r="20" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6462,11 +6493,11 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148" t="s">
+      <c r="C23" s="149"/>
+      <c r="D23" s="149" t="s">
         <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -6477,11 +6508,11 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
       <c r="E24" s="2" t="s">
         <v>47</v>
       </c>
@@ -6490,11 +6521,11 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
       <c r="E25" s="2" t="s">
         <v>47</v>
       </c>
@@ -6503,11 +6534,11 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
       <c r="E26" s="2" t="s">
         <v>47</v>
       </c>
@@ -6516,11 +6547,11 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
       <c r="E27" s="2" t="s">
         <v>47</v>
       </c>
@@ -6529,11 +6560,11 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
       <c r="E28" s="2" t="s">
         <v>47</v>
       </c>
@@ -6542,11 +6573,11 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
       <c r="E29" s="2" t="s">
         <v>47</v>
       </c>
@@ -6555,21 +6586,28 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="F3:F5"/>
@@ -6582,13 +6620,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6634,7 +6665,7 @@
       <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="161" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="43" t="s">
@@ -6646,7 +6677,7 @@
       <c r="E3" s="41">
         <v>5</v>
       </c>
-      <c r="F3" s="152">
+      <c r="F3" s="155">
         <v>25</v>
       </c>
       <c r="G3" s="44" t="s">
@@ -6654,7 +6685,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="150"/>
+      <c r="B4" s="162"/>
       <c r="C4" s="43" t="s">
         <v>97</v>
       </c>
@@ -6664,11 +6695,11 @@
       <c r="E4" s="41">
         <v>5</v>
       </c>
-      <c r="F4" s="153"/>
+      <c r="F4" s="164"/>
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="151"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="43" t="s">
         <v>95</v>
       </c>
@@ -6678,11 +6709,11 @@
       <c r="E5" s="41">
         <v>15</v>
       </c>
-      <c r="F5" s="154"/>
+      <c r="F5" s="156"/>
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="165" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="43" t="s">
@@ -6694,13 +6725,13 @@
       <c r="E6" s="45">
         <v>10</v>
       </c>
-      <c r="F6" s="158">
+      <c r="F6" s="151">
         <v>25</v>
       </c>
       <c r="G6" s="27"/>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="156"/>
+      <c r="B7" s="166"/>
       <c r="C7" s="43" t="s">
         <v>90</v>
       </c>
@@ -6710,11 +6741,11 @@
       <c r="E7" s="45">
         <v>10</v>
       </c>
-      <c r="F7" s="159"/>
+      <c r="F7" s="168"/>
       <c r="G7" s="27"/>
     </row>
     <row r="8" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="157"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="43" t="s">
         <v>88</v>
       </c>
@@ -6724,11 +6755,11 @@
       <c r="E8" s="45">
         <v>5</v>
       </c>
-      <c r="F8" s="160"/>
+      <c r="F8" s="152"/>
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="165" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="43" t="s">
@@ -6740,13 +6771,13 @@
       <c r="E9" s="41">
         <v>4</v>
       </c>
-      <c r="F9" s="152">
+      <c r="F9" s="155">
         <v>21</v>
       </c>
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="156"/>
+      <c r="B10" s="166"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -6756,11 +6787,11 @@
       <c r="E10" s="41">
         <v>5</v>
       </c>
-      <c r="F10" s="153"/>
+      <c r="F10" s="164"/>
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="156"/>
+      <c r="B11" s="166"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -6770,11 +6801,11 @@
       <c r="E11" s="41">
         <v>6</v>
       </c>
-      <c r="F11" s="153"/>
+      <c r="F11" s="164"/>
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="157"/>
+      <c r="B12" s="167"/>
       <c r="C12" s="43" t="s">
         <v>79</v>
       </c>
@@ -6784,7 +6815,7 @@
       <c r="E12" s="41">
         <v>6</v>
       </c>
-      <c r="F12" s="154"/>
+      <c r="F12" s="156"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -6800,7 +6831,7 @@
       <c r="E13" s="45">
         <v>5</v>
       </c>
-      <c r="F13" s="158">
+      <c r="F13" s="151">
         <v>20</v>
       </c>
       <c r="G13" s="44" t="s">
@@ -6818,11 +6849,11 @@
       <c r="E14" s="45">
         <v>15</v>
       </c>
-      <c r="F14" s="160"/>
+      <c r="F14" s="152"/>
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="153" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="43" t="s">
@@ -6834,7 +6865,7 @@
       <c r="E15" s="41">
         <v>5</v>
       </c>
-      <c r="F15" s="152">
+      <c r="F15" s="155">
         <v>9</v>
       </c>
       <c r="G15" s="44" t="s">
@@ -6842,7 +6873,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="163"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="43" t="s">
         <v>70</v>
       </c>
@@ -6852,7 +6883,7 @@
       <c r="E16" s="41">
         <v>4</v>
       </c>
-      <c r="F16" s="154"/>
+      <c r="F16" s="156"/>
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6864,7 +6895,7 @@
       <c r="G17" s="27"/>
     </row>
     <row r="18" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="157" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -6876,13 +6907,13 @@
       <c r="E18" s="38">
         <v>5</v>
       </c>
-      <c r="F18" s="166">
+      <c r="F18" s="159">
         <v>10</v>
       </c>
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="165"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="36" t="s">
         <v>41</v>
       </c>
@@ -6892,7 +6923,7 @@
       <c r="E19" s="38">
         <v>5</v>
       </c>
-      <c r="F19" s="167"/>
+      <c r="F19" s="160"/>
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6944,11 +6975,11 @@
       <c r="N22" s="29"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -7239,18 +7270,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="F9:F12"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="F9:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7313,7 +7344,7 @@
       <c r="G3" s="70"/>
     </row>
     <row r="4" spans="2:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="169" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -7328,12 +7359,12 @@
       <c r="F4" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="177" t="s">
+      <c r="G4" s="171" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="176"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="43" t="s">
         <v>131</v>
       </c>
@@ -7346,10 +7377,10 @@
       <c r="F5" s="73">
         <v>15</v>
       </c>
-      <c r="G5" s="177"/>
+      <c r="G5" s="171"/>
     </row>
     <row r="6" spans="2:7" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="176"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="43" t="s">
         <v>72</v>
       </c>
@@ -7362,10 +7393,10 @@
       <c r="F6" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="177"/>
+      <c r="G6" s="171"/>
     </row>
     <row r="7" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="172" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -7377,13 +7408,13 @@
       <c r="E7" s="69">
         <v>10</v>
       </c>
-      <c r="F7" s="171">
+      <c r="F7" s="175">
         <v>25</v>
       </c>
       <c r="G7" s="70"/>
     </row>
     <row r="8" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="179"/>
+      <c r="B8" s="173"/>
       <c r="C8" s="43" t="s">
         <v>90</v>
       </c>
@@ -7393,11 +7424,11 @@
       <c r="E8" s="69">
         <v>10</v>
       </c>
-      <c r="F8" s="172"/>
+      <c r="F8" s="176"/>
       <c r="G8" s="70"/>
     </row>
     <row r="9" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="180"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="43" t="s">
         <v>88</v>
       </c>
@@ -7407,11 +7438,11 @@
       <c r="E9" s="69">
         <v>5</v>
       </c>
-      <c r="F9" s="173"/>
+      <c r="F9" s="177"/>
       <c r="G9" s="70"/>
     </row>
     <row r="10" spans="2:7" ht="81.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="179" t="s">
+      <c r="B10" s="173" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="43" t="s">
@@ -7423,13 +7454,13 @@
       <c r="E10" s="77">
         <v>8</v>
       </c>
-      <c r="F10" s="181">
+      <c r="F10" s="178">
         <v>36</v>
       </c>
       <c r="G10" s="70"/>
     </row>
     <row r="11" spans="2:7" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="179"/>
+      <c r="B11" s="173"/>
       <c r="C11" s="43" t="s">
         <v>139</v>
       </c>
@@ -7439,11 +7470,11 @@
       <c r="E11" s="77">
         <v>8</v>
       </c>
-      <c r="F11" s="182"/>
+      <c r="F11" s="179"/>
       <c r="G11" s="70"/>
     </row>
     <row r="12" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="179"/>
+      <c r="B12" s="173"/>
       <c r="C12" s="43" t="s">
         <v>141</v>
       </c>
@@ -7453,11 +7484,11 @@
       <c r="E12" s="77">
         <v>15</v>
       </c>
-      <c r="F12" s="182"/>
+      <c r="F12" s="179"/>
       <c r="G12" s="70"/>
     </row>
     <row r="13" spans="2:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="180"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="43" t="s">
         <v>30</v>
       </c>
@@ -7467,11 +7498,11 @@
       <c r="E13" s="77">
         <v>5</v>
       </c>
-      <c r="F13" s="183"/>
+      <c r="F13" s="180"/>
       <c r="G13" s="70"/>
     </row>
     <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="169" t="s">
+      <c r="B14" s="182" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="43" t="s">
@@ -7483,13 +7514,13 @@
       <c r="E14" s="69">
         <v>5</v>
       </c>
-      <c r="F14" s="171">
+      <c r="F14" s="175">
         <v>15</v>
       </c>
       <c r="G14" s="70"/>
     </row>
     <row r="15" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="169"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="43" t="s">
         <v>145</v>
       </c>
@@ -7499,11 +7530,11 @@
       <c r="E15" s="69">
         <v>5</v>
       </c>
-      <c r="F15" s="172"/>
+      <c r="F15" s="176"/>
       <c r="G15" s="70"/>
     </row>
     <row r="16" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="170"/>
+      <c r="B16" s="183"/>
       <c r="C16" s="43" t="s">
         <v>79</v>
       </c>
@@ -7513,7 +7544,7 @@
       <c r="E16" s="69">
         <v>5</v>
       </c>
-      <c r="F16" s="173"/>
+      <c r="F16" s="177"/>
       <c r="G16" s="70"/>
     </row>
     <row r="17" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7569,62 +7600,56 @@
       <c r="G20" s="70"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="150" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
     </row>
     <row r="22" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="174" t="s">
+      <c r="B22" s="184" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="181" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="168" t="s">
+      <c r="B24" s="181" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="181" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="168" t="s">
+      <c r="B26" s="181" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
@@ -7634,6 +7659,12 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7694,7 +7725,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="185" t="s">
         <v>174</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -7706,15 +7737,15 @@
       <c r="E4" s="96">
         <v>7</v>
       </c>
-      <c r="F4" s="188">
+      <c r="F4" s="187">
         <v>15</v>
       </c>
-      <c r="G4" s="177" t="s">
+      <c r="G4" s="171" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="79" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="187"/>
+      <c r="B5" s="186"/>
       <c r="C5" s="97" t="s">
         <v>72</v>
       </c>
@@ -7724,11 +7755,11 @@
       <c r="E5" s="98">
         <v>8</v>
       </c>
-      <c r="F5" s="189"/>
-      <c r="G5" s="177"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="171"/>
     </row>
     <row r="6" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="169" t="s">
         <v>177</v>
       </c>
       <c r="C6" s="99" t="s">
@@ -7740,12 +7771,12 @@
       <c r="E6" s="101">
         <v>10</v>
       </c>
-      <c r="F6" s="191">
+      <c r="F6" s="190">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="176"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="102" t="s">
         <v>90</v>
       </c>
@@ -7755,10 +7786,10 @@
       <c r="E7" s="101">
         <v>10</v>
       </c>
-      <c r="F7" s="192"/>
+      <c r="F7" s="191"/>
     </row>
     <row r="8" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="190"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="102" t="s">
         <v>88</v>
       </c>
@@ -7768,10 +7799,10 @@
       <c r="E8" s="101">
         <v>5</v>
       </c>
-      <c r="F8" s="193"/>
+      <c r="F8" s="192"/>
     </row>
     <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="193" t="s">
         <v>178</v>
       </c>
       <c r="C9" s="97" t="s">
@@ -7780,26 +7811,26 @@
       <c r="D9" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="197">
+      <c r="E9" s="196">
         <v>15</v>
       </c>
-      <c r="F9" s="197">
+      <c r="F9" s="196">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="92" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="195"/>
+      <c r="B10" s="194"/>
       <c r="C10" s="97" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="198"/>
-      <c r="F10" s="199"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="198"/>
     </row>
     <row r="11" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="195"/>
+      <c r="B11" s="194"/>
       <c r="C11" s="43" t="s">
         <v>141</v>
       </c>
@@ -7809,10 +7840,10 @@
       <c r="E11" s="104">
         <v>15</v>
       </c>
-      <c r="F11" s="199"/>
+      <c r="F11" s="198"/>
     </row>
     <row r="12" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="196"/>
+      <c r="B12" s="195"/>
       <c r="C12" s="43" t="s">
         <v>30</v>
       </c>
@@ -7822,10 +7853,10 @@
       <c r="E12" s="96">
         <v>5</v>
       </c>
-      <c r="F12" s="198"/>
+      <c r="F12" s="197"/>
     </row>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="185" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="102" t="s">
@@ -7837,12 +7868,12 @@
       <c r="E13" s="105">
         <v>4</v>
       </c>
-      <c r="F13" s="191">
+      <c r="F13" s="190">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="200"/>
+      <c r="B14" s="199"/>
       <c r="C14" s="102" t="s">
         <v>83</v>
       </c>
@@ -7852,10 +7883,10 @@
       <c r="E14" s="105">
         <v>4</v>
       </c>
-      <c r="F14" s="192"/>
+      <c r="F14" s="191"/>
     </row>
     <row r="15" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="200"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="102" t="s">
         <v>81</v>
       </c>
@@ -7865,10 +7896,10 @@
       <c r="E15" s="105">
         <v>4</v>
       </c>
-      <c r="F15" s="192"/>
+      <c r="F15" s="191"/>
     </row>
     <row r="16" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="201"/>
+      <c r="B16" s="200"/>
       <c r="C16" s="99" t="s">
         <v>79</v>
       </c>
@@ -7878,7 +7909,7 @@
       <c r="E16" s="105">
         <v>4</v>
       </c>
-      <c r="F16" s="193"/>
+      <c r="F16" s="192"/>
     </row>
     <row r="17" spans="2:9" ht="92" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
@@ -7950,88 +7981,88 @@
       <c r="F22" s="111"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="150" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
     </row>
     <row r="24" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="184" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
+      <c r="C24" s="184"/>
+      <c r="D24" s="184"/>
       <c r="E24" s="115"/>
       <c r="F24" s="115"/>
       <c r="G24" s="116"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="181" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
       <c r="E25" s="110"/>
       <c r="F25" s="111"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="168" t="s">
+      <c r="B26" s="181" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
       <c r="E26" s="110"/>
       <c r="F26" s="111"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="181" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
       <c r="E27" s="110"/>
       <c r="F27" s="111"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="168" t="s">
+      <c r="B28" s="181" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
       <c r="E28" s="110"/>
       <c r="F28" s="111"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="168" t="s">
+      <c r="B29" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
       <c r="E29" s="110"/>
       <c r="F29" s="111"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="184"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="201"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="201"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="185"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="185"/>
+      <c r="B31" s="202"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="202"/>
+      <c r="F31" s="202"/>
+      <c r="G31" s="202"/>
+      <c r="H31" s="202"/>
+      <c r="I31" s="202"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="117"/>
@@ -8226,6 +8257,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="F4:F5"/>
@@ -8240,11 +8276,6 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8295,7 +8326,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="203" t="s">
         <v>157</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -8307,7 +8338,7 @@
       <c r="E3" s="59">
         <v>0.06</v>
       </c>
-      <c r="F3" s="205">
+      <c r="F3" s="206">
         <v>0.2</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -8315,7 +8346,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="203"/>
+      <c r="B4" s="204"/>
       <c r="C4" s="57" t="s">
         <v>9</v>
       </c>
@@ -8325,10 +8356,10 @@
       <c r="E4" s="59">
         <v>0.04</v>
       </c>
-      <c r="F4" s="206"/>
+      <c r="F4" s="207"/>
     </row>
     <row r="5" spans="2:7" ht="187" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="204"/>
+      <c r="B5" s="205"/>
       <c r="C5" s="57" t="s">
         <v>95</v>
       </c>
@@ -8338,10 +8369,10 @@
       <c r="E5" s="59">
         <v>0.1</v>
       </c>
-      <c r="F5" s="207"/>
+      <c r="F5" s="208"/>
     </row>
     <row r="6" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="202" t="s">
+      <c r="B6" s="203" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -8358,7 +8389,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="203"/>
+      <c r="B7" s="204"/>
       <c r="C7" s="57" t="s">
         <v>16</v>
       </c>
@@ -8371,7 +8402,7 @@
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="203"/>
+      <c r="B8" s="204"/>
       <c r="C8" s="57" t="s">
         <v>18</v>
       </c>
@@ -8384,7 +8415,7 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="204"/>
+      <c r="B9" s="205"/>
       <c r="C9" s="57" t="s">
         <v>20</v>
       </c>
@@ -8397,7 +8428,7 @@
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="2:7" ht="27.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="208" t="s">
+      <c r="B10" s="209" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -8409,12 +8440,12 @@
       <c r="E10" s="59">
         <v>0.12</v>
       </c>
-      <c r="F10" s="205">
+      <c r="F10" s="206">
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="209"/>
+      <c r="B11" s="210"/>
       <c r="C11" s="81" t="s">
         <v>163</v>
       </c>
@@ -8424,13 +8455,13 @@
       <c r="E11" s="59">
         <v>0.1</v>
       </c>
-      <c r="F11" s="206"/>
+      <c r="F11" s="207"/>
       <c r="G11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="210"/>
+      <c r="B12" s="211"/>
       <c r="C12" s="57" t="s">
         <v>165</v>
       </c>
@@ -8440,10 +8471,10 @@
       <c r="E12" s="59">
         <v>0.08</v>
       </c>
-      <c r="F12" s="207"/>
+      <c r="F12" s="208"/>
     </row>
     <row r="13" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="202" t="s">
+      <c r="B13" s="203" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -8455,12 +8486,12 @@
       <c r="E13" s="12">
         <v>0.06</v>
       </c>
-      <c r="F13" s="139">
+      <c r="F13" s="140">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="203"/>
+      <c r="B14" s="204"/>
       <c r="C14" s="57" t="s">
         <v>32</v>
       </c>
@@ -8470,10 +8501,10 @@
       <c r="E14" s="12">
         <v>0.03</v>
       </c>
-      <c r="F14" s="140"/>
+      <c r="F14" s="141"/>
     </row>
     <row r="15" spans="2:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="203"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="57" t="s">
         <v>34</v>
       </c>
@@ -8483,10 +8514,10 @@
       <c r="E15" s="12">
         <v>0.03</v>
       </c>
-      <c r="F15" s="140"/>
+      <c r="F15" s="141"/>
     </row>
     <row r="16" spans="2:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="204"/>
+      <c r="B16" s="205"/>
       <c r="C16" s="57" t="s">
         <v>36</v>
       </c>
@@ -8496,7 +8527,7 @@
       <c r="E16" s="12">
         <v>0.08</v>
       </c>
-      <c r="F16" s="141"/>
+      <c r="F16" s="142"/>
       <c r="G16" s="9" t="s">
         <v>8</v>
       </c>
@@ -8549,11 +8580,11 @@
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="148" t="s">
+      <c r="B22" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="148"/>
-      <c r="D22" s="148" t="s">
+      <c r="C22" s="149"/>
+      <c r="D22" s="149" t="s">
         <v>47</v>
       </c>
     </row>
@@ -8660,7 +8691,7 @@
       <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="212" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -8672,7 +8703,7 @@
       <c r="E3" s="59">
         <v>0.06</v>
       </c>
-      <c r="F3" s="205">
+      <c r="F3" s="206">
         <v>0.2</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -8680,7 +8711,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="212"/>
+      <c r="B4" s="213"/>
       <c r="C4" s="57" t="s">
         <v>9</v>
       </c>
@@ -8690,10 +8721,10 @@
       <c r="E4" s="59">
         <v>0.04</v>
       </c>
-      <c r="F4" s="206"/>
+      <c r="F4" s="207"/>
     </row>
     <row r="5" spans="1:7" ht="82" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="213"/>
+      <c r="B5" s="214"/>
       <c r="C5" s="57" t="s">
         <v>11</v>
       </c>
@@ -8703,10 +8734,10 @@
       <c r="E5" s="59">
         <v>0.1</v>
       </c>
-      <c r="F5" s="207"/>
+      <c r="F5" s="208"/>
     </row>
     <row r="6" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="212" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -8718,12 +8749,12 @@
       <c r="E6" s="12">
         <v>0.12</v>
       </c>
-      <c r="F6" s="139">
+      <c r="F6" s="140">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="212"/>
+      <c r="B7" s="213"/>
       <c r="C7" s="57" t="s">
         <v>16</v>
       </c>
@@ -8733,10 +8764,10 @@
       <c r="E7" s="12">
         <v>0.09</v>
       </c>
-      <c r="F7" s="140"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="212"/>
+      <c r="B8" s="213"/>
       <c r="C8" s="57" t="s">
         <v>18</v>
       </c>
@@ -8746,10 +8777,10 @@
       <c r="E8" s="12">
         <v>0.05</v>
       </c>
-      <c r="F8" s="140"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="213"/>
+      <c r="B9" s="214"/>
       <c r="C9" s="57" t="s">
         <v>20</v>
       </c>
@@ -8759,10 +8790,10 @@
       <c r="E9" s="12">
         <v>0.04</v>
       </c>
-      <c r="F9" s="141"/>
+      <c r="F9" s="142"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="211" t="s">
+      <c r="B10" s="212" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -8774,12 +8805,12 @@
       <c r="E10" s="59">
         <v>0.1</v>
       </c>
-      <c r="F10" s="205">
+      <c r="F10" s="206">
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="212"/>
+      <c r="B11" s="213"/>
       <c r="C11" s="57" t="s">
         <v>115</v>
       </c>
@@ -8789,13 +8820,13 @@
       <c r="E11" s="59">
         <v>0.1</v>
       </c>
-      <c r="F11" s="206"/>
+      <c r="F11" s="207"/>
       <c r="G11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="213"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="57" t="s">
         <v>117</v>
       </c>
@@ -8805,10 +8836,10 @@
       <c r="E12" s="59">
         <v>0.1</v>
       </c>
-      <c r="F12" s="207"/>
+      <c r="F12" s="208"/>
     </row>
     <row r="13" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="212" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -8820,12 +8851,12 @@
       <c r="E13" s="12">
         <v>0.08</v>
       </c>
-      <c r="F13" s="139">
+      <c r="F13" s="140">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="212"/>
+      <c r="B14" s="213"/>
       <c r="C14" s="57" t="s">
         <v>32</v>
       </c>
@@ -8835,10 +8866,10 @@
       <c r="E14" s="12">
         <v>0.02</v>
       </c>
-      <c r="F14" s="140"/>
+      <c r="F14" s="141"/>
     </row>
     <row r="15" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="212"/>
+      <c r="B15" s="213"/>
       <c r="C15" s="57" t="s">
         <v>34</v>
       </c>
@@ -8848,10 +8879,10 @@
       <c r="E15" s="12">
         <v>0.02</v>
       </c>
-      <c r="F15" s="140"/>
+      <c r="F15" s="141"/>
     </row>
     <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="212"/>
+      <c r="B16" s="213"/>
       <c r="C16" s="57" t="s">
         <v>36</v>
       </c>
@@ -8861,7 +8892,7 @@
       <c r="E16" s="12">
         <v>0.08</v>
       </c>
-      <c r="F16" s="141"/>
+      <c r="F16" s="142"/>
       <c r="G16" s="9" t="s">
         <v>8</v>
       </c>
@@ -8897,11 +8928,11 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="148" t="s">
+      <c r="B20" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148" t="s">
+      <c r="C20" s="149"/>
+      <c r="D20" s="149" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="2"/>

--- a/Pauta Parlo con InfGeneral (Linea 1).xlsx
+++ b/Pauta Parlo con InfGeneral (Linea 1).xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nelson/Documents/REACT/evaluacion3/Proyecto-Evaluacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D78D63F-98F9-564D-85FD-B8C47349FFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4542646C-FBBD-FD49-BDA6-B01241516B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{EBE3E73A-F0FB-4C1E-B847-9E1076CFD6E1}"/>
+    <workbookView xWindow="-20" yWindow="20" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{EBE3E73A-F0FB-4C1E-B847-9E1076CFD6E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato Parlo" sheetId="7" r:id="rId1"/>
-    <sheet name="1. Parlo 1°línea" sheetId="1" r:id="rId2"/>
-    <sheet name="2. Parlo Fraude" sheetId="2" r:id="rId3"/>
-    <sheet name="3. Parlo Fraude Monitoreo" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Parlo Equipo Esp." sheetId="6" r:id="rId5"/>
-    <sheet name="5. Parlo Fidelizacion" sheetId="5" r:id="rId6"/>
-    <sheet name="6. Parlo Ventas" sheetId="3" r:id="rId7"/>
-    <sheet name="Hoja2" sheetId="8" r:id="rId8"/>
+    <sheet name="Formato Parlo (2)" sheetId="9" r:id="rId2"/>
+    <sheet name="1. Parlo 1°línea" sheetId="1" r:id="rId3"/>
+    <sheet name="2. Parlo Fraude" sheetId="2" r:id="rId4"/>
+    <sheet name="3. Parlo Fraude Monitoreo" sheetId="4" r:id="rId5"/>
+    <sheet name="4. Parlo Equipo Esp." sheetId="6" r:id="rId6"/>
+    <sheet name="5. Parlo Fidelizacion" sheetId="5" r:id="rId7"/>
+    <sheet name="6. Parlo Ventas" sheetId="3" r:id="rId8"/>
+    <sheet name="Hoja2" sheetId="8" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_Hlk91063768" localSheetId="3">'[1]1. Reporte de Interacción'!#REF!</definedName>
-    <definedName name="_Hlk91063768" localSheetId="4">'[2]1. Reporte de Interacción'!#REF!</definedName>
+    <definedName name="_Hlk91063768" localSheetId="4">'[1]1. Reporte de Interacción'!#REF!</definedName>
+    <definedName name="_Hlk91063768" localSheetId="5">'[2]1. Reporte de Interacción'!#REF!</definedName>
     <definedName name="_Hlk91063768">'[3]1. Reporte de Interacción'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="245">
   <si>
     <t>BLOQUES 
 DE EVALUACIÓN</t>
@@ -3508,6 +3509,27 @@
   </si>
   <si>
     <t>GENERAL 11</t>
+  </si>
+  <si>
+    <t>QUIEBRE TOTAL = NOTA 0 y conservadatos ??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUIEBRE ES PARCIAL SUMATORIA QUIEBRE = SI </t>
+  </si>
+  <si>
+    <t>DAR UN EJEMPLO EN ESTE CASO</t>
+  </si>
+  <si>
+    <t>COMO SE SI ES QUIEBRE PARCIAL</t>
+  </si>
+  <si>
+    <t>Seleccionar Quiebre parcial / Total</t>
+  </si>
+  <si>
+    <t>Quiebre</t>
+  </si>
+  <si>
+    <t>ERROR CRITICO ES QUIEBRE TOTAL, DEJE AL FINAL EJEMPLO PARA INDICAR SI ES PARCIAL / TOTAL CONSULTAR</t>
   </si>
 </sst>
 </file>
@@ -3517,7 +3539,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="73" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4049,8 +4071,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4186,6 +4215,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -4474,7 +4521,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4901,27 +4948,51 @@
     <xf numFmtId="0" fontId="25" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4934,29 +5005,26 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4976,15 +5044,6 @@
     <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4994,16 +5053,10 @@
     <xf numFmtId="0" fontId="51" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5054,12 +5107,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5095,6 +5142,35 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="25" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="26" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="26" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5529,8 +5605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC3EB99-ACB9-1B49-A13C-C4B026739EFC}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5819,7 +5895,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="92" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -6194,6 +6270,712 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2665E896-FB87-2E48-A391-3713B2BE5EEF}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="129" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="86.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="124" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="125" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="130">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="130">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="130">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="221" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="130">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="221" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="130">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="220" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="215" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="216" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="217" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="218">
+        <v>0</v>
+      </c>
+      <c r="F7" s="219">
+        <v>0</v>
+      </c>
+      <c r="G7" s="220" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="220" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="215" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="216" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="217" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="218">
+        <v>0</v>
+      </c>
+      <c r="F8" s="219">
+        <v>0</v>
+      </c>
+      <c r="G8" s="220" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="130">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="220" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="130">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="130">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="132" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="130">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="F13" s="130">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="157" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="F14" s="130">
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="395" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="130">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="129" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F16" s="126">
+        <v>0.3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="130" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="129" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="F17" s="126">
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="144" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="129" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="126">
+        <v>0.3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="157" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="129" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="126">
+        <v>0.3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="128" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F20" s="127">
+        <v>0.3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="252" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="127">
+        <v>0.3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="156" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="F22" s="127">
+        <v>0.3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="229" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="129" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="F23" s="126">
+        <v>0.2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="184" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="129" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="F24" s="126">
+        <v>0.2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="144" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" s="129" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="F25" s="126">
+        <v>0.2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="109" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" s="129" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="F26" s="126">
+        <v>0.2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="74" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" s="129" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="F27" s="131">
+        <v>0.1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="74" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" s="129" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F28" s="131">
+        <v>0.1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="220">
+        <v>24</v>
+      </c>
+      <c r="B29" s="215" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="222" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="223" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" s="224">
+        <v>0.05</v>
+      </c>
+      <c r="F29" s="225">
+        <v>0.1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE025E01-8213-4C61-B00E-963195BA7339}">
   <dimension ref="B1:G31"/>
   <sheetViews>
@@ -6601,13 +7383,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="F3:F5"/>
@@ -6620,13 +7395,20 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F6B81A-D228-40BF-A332-FDD0FF22A8A6}">
   <dimension ref="B1:O47"/>
   <sheetViews>
@@ -6665,7 +7447,7 @@
       <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="43" t="s">
@@ -6677,7 +7459,7 @@
       <c r="E3" s="41">
         <v>5</v>
       </c>
-      <c r="F3" s="155">
+      <c r="F3" s="153">
         <v>25</v>
       </c>
       <c r="G3" s="44" t="s">
@@ -6685,7 +7467,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="162"/>
+      <c r="B4" s="151"/>
       <c r="C4" s="43" t="s">
         <v>97</v>
       </c>
@@ -6695,11 +7477,11 @@
       <c r="E4" s="41">
         <v>5</v>
       </c>
-      <c r="F4" s="164"/>
+      <c r="F4" s="154"/>
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="163"/>
+      <c r="B5" s="152"/>
       <c r="C5" s="43" t="s">
         <v>95</v>
       </c>
@@ -6709,11 +7491,11 @@
       <c r="E5" s="41">
         <v>15</v>
       </c>
-      <c r="F5" s="156"/>
+      <c r="F5" s="155"/>
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="156" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="43" t="s">
@@ -6725,13 +7507,13 @@
       <c r="E6" s="45">
         <v>10</v>
       </c>
-      <c r="F6" s="151">
+      <c r="F6" s="159">
         <v>25</v>
       </c>
       <c r="G6" s="27"/>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="166"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="43" t="s">
         <v>90</v>
       </c>
@@ -6741,11 +7523,11 @@
       <c r="E7" s="45">
         <v>10</v>
       </c>
-      <c r="F7" s="168"/>
+      <c r="F7" s="160"/>
       <c r="G7" s="27"/>
     </row>
     <row r="8" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="167"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="43" t="s">
         <v>88</v>
       </c>
@@ -6755,11 +7537,11 @@
       <c r="E8" s="45">
         <v>5</v>
       </c>
-      <c r="F8" s="152"/>
+      <c r="F8" s="161"/>
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="165" t="s">
+      <c r="B9" s="156" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="43" t="s">
@@ -6771,13 +7553,13 @@
       <c r="E9" s="41">
         <v>4</v>
       </c>
-      <c r="F9" s="155">
+      <c r="F9" s="153">
         <v>21</v>
       </c>
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="166"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -6787,11 +7569,11 @@
       <c r="E10" s="41">
         <v>5</v>
       </c>
-      <c r="F10" s="164"/>
+      <c r="F10" s="154"/>
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="166"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -6801,11 +7583,11 @@
       <c r="E11" s="41">
         <v>6</v>
       </c>
-      <c r="F11" s="164"/>
+      <c r="F11" s="154"/>
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="167"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="43" t="s">
         <v>79</v>
       </c>
@@ -6815,7 +7597,7 @@
       <c r="E12" s="41">
         <v>6</v>
       </c>
-      <c r="F12" s="156"/>
+      <c r="F12" s="155"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -6831,7 +7613,7 @@
       <c r="E13" s="45">
         <v>5</v>
       </c>
-      <c r="F13" s="151">
+      <c r="F13" s="159">
         <v>20</v>
       </c>
       <c r="G13" s="44" t="s">
@@ -6849,11 +7631,11 @@
       <c r="E14" s="45">
         <v>15</v>
       </c>
-      <c r="F14" s="152"/>
+      <c r="F14" s="161"/>
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="163" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="43" t="s">
@@ -6865,7 +7647,7 @@
       <c r="E15" s="41">
         <v>5</v>
       </c>
-      <c r="F15" s="155">
+      <c r="F15" s="153">
         <v>9</v>
       </c>
       <c r="G15" s="44" t="s">
@@ -6873,7 +7655,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="154"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="43" t="s">
         <v>70</v>
       </c>
@@ -6883,7 +7665,7 @@
       <c r="E16" s="41">
         <v>4</v>
       </c>
-      <c r="F16" s="156"/>
+      <c r="F16" s="155"/>
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6895,7 +7677,7 @@
       <c r="G17" s="27"/>
     </row>
     <row r="18" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="165" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -6907,13 +7689,13 @@
       <c r="E18" s="38">
         <v>5</v>
       </c>
-      <c r="F18" s="159">
+      <c r="F18" s="167">
         <v>10</v>
       </c>
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="158"/>
+      <c r="B19" s="166"/>
       <c r="C19" s="36" t="s">
         <v>41</v>
       </c>
@@ -6923,7 +7705,7 @@
       <c r="E19" s="38">
         <v>5</v>
       </c>
-      <c r="F19" s="160"/>
+      <c r="F19" s="168"/>
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6975,11 +7757,11 @@
       <c r="N22" s="29"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="162" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -7270,25 +8052,25 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="F9:F12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7747EC7-5251-4ECD-8CCA-632F2294F34E}">
   <dimension ref="B1:G27"/>
   <sheetViews>
@@ -7344,7 +8126,7 @@
       <c r="G3" s="70"/>
     </row>
     <row r="4" spans="2:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="176" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -7359,12 +8141,12 @@
       <c r="F4" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="171" t="s">
+      <c r="G4" s="178" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="170"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="43" t="s">
         <v>131</v>
       </c>
@@ -7377,10 +8159,10 @@
       <c r="F5" s="73">
         <v>15</v>
       </c>
-      <c r="G5" s="171"/>
+      <c r="G5" s="178"/>
     </row>
     <row r="6" spans="2:7" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="170"/>
+      <c r="B6" s="177"/>
       <c r="C6" s="43" t="s">
         <v>72</v>
       </c>
@@ -7393,10 +8175,10 @@
       <c r="F6" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="171"/>
+      <c r="G6" s="178"/>
     </row>
     <row r="7" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="179" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -7408,13 +8190,13 @@
       <c r="E7" s="69">
         <v>10</v>
       </c>
-      <c r="F7" s="175">
+      <c r="F7" s="172">
         <v>25</v>
       </c>
       <c r="G7" s="70"/>
     </row>
     <row r="8" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="173"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="43" t="s">
         <v>90</v>
       </c>
@@ -7424,11 +8206,11 @@
       <c r="E8" s="69">
         <v>10</v>
       </c>
-      <c r="F8" s="176"/>
+      <c r="F8" s="173"/>
       <c r="G8" s="70"/>
     </row>
     <row r="9" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="174"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="43" t="s">
         <v>88</v>
       </c>
@@ -7438,11 +8220,11 @@
       <c r="E9" s="69">
         <v>5</v>
       </c>
-      <c r="F9" s="177"/>
+      <c r="F9" s="174"/>
       <c r="G9" s="70"/>
     </row>
     <row r="10" spans="2:7" ht="81.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="173" t="s">
+      <c r="B10" s="180" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="43" t="s">
@@ -7454,13 +8236,13 @@
       <c r="E10" s="77">
         <v>8</v>
       </c>
-      <c r="F10" s="178">
+      <c r="F10" s="182">
         <v>36</v>
       </c>
       <c r="G10" s="70"/>
     </row>
     <row r="11" spans="2:7" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="173"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="43" t="s">
         <v>139</v>
       </c>
@@ -7470,11 +8252,11 @@
       <c r="E11" s="77">
         <v>8</v>
       </c>
-      <c r="F11" s="179"/>
+      <c r="F11" s="183"/>
       <c r="G11" s="70"/>
     </row>
     <row r="12" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="173"/>
+      <c r="B12" s="180"/>
       <c r="C12" s="43" t="s">
         <v>141</v>
       </c>
@@ -7484,11 +8266,11 @@
       <c r="E12" s="77">
         <v>15</v>
       </c>
-      <c r="F12" s="179"/>
+      <c r="F12" s="183"/>
       <c r="G12" s="70"/>
     </row>
     <row r="13" spans="2:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="174"/>
+      <c r="B13" s="181"/>
       <c r="C13" s="43" t="s">
         <v>30</v>
       </c>
@@ -7498,11 +8280,11 @@
       <c r="E13" s="77">
         <v>5</v>
       </c>
-      <c r="F13" s="180"/>
+      <c r="F13" s="184"/>
       <c r="G13" s="70"/>
     </row>
     <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="170" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="43" t="s">
@@ -7514,13 +8296,13 @@
       <c r="E14" s="69">
         <v>5</v>
       </c>
-      <c r="F14" s="175">
+      <c r="F14" s="172">
         <v>15</v>
       </c>
       <c r="G14" s="70"/>
     </row>
     <row r="15" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="182"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="43" t="s">
         <v>145</v>
       </c>
@@ -7530,11 +8312,11 @@
       <c r="E15" s="69">
         <v>5</v>
       </c>
-      <c r="F15" s="176"/>
+      <c r="F15" s="173"/>
       <c r="G15" s="70"/>
     </row>
     <row r="16" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="183"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="43" t="s">
         <v>79</v>
       </c>
@@ -7544,7 +8326,7 @@
       <c r="E16" s="69">
         <v>5</v>
       </c>
-      <c r="F16" s="177"/>
+      <c r="F16" s="174"/>
       <c r="G16" s="70"/>
     </row>
     <row r="17" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7600,56 +8382,62 @@
       <c r="G20" s="70"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="150" t="s">
+      <c r="B21" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
     </row>
     <row r="22" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="184" t="s">
+      <c r="B22" s="175" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="181" t="s">
+      <c r="B23" s="169" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="181" t="s">
+      <c r="B24" s="169" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="181"/>
-      <c r="D24" s="181"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="181" t="s">
+      <c r="B25" s="169" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="181"/>
-      <c r="D25" s="181"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="181" t="s">
+      <c r="B26" s="169" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="181"/>
-      <c r="D26" s="181"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="181" t="s">
+      <c r="B27" s="169" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="181"/>
-      <c r="D27" s="181"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
@@ -7659,18 +8447,12 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549160B6-C9F6-4AFA-AD1F-9411A11F6F3A}">
   <dimension ref="B1:I62"/>
   <sheetViews>
@@ -7725,7 +8507,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="187" t="s">
         <v>174</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -7737,15 +8519,15 @@
       <c r="E4" s="96">
         <v>7</v>
       </c>
-      <c r="F4" s="187">
+      <c r="F4" s="189">
         <v>15</v>
       </c>
-      <c r="G4" s="171" t="s">
+      <c r="G4" s="178" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="79" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="186"/>
+      <c r="B5" s="188"/>
       <c r="C5" s="97" t="s">
         <v>72</v>
       </c>
@@ -7755,11 +8537,11 @@
       <c r="E5" s="98">
         <v>8</v>
       </c>
-      <c r="F5" s="188"/>
-      <c r="G5" s="171"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="178"/>
     </row>
     <row r="6" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="176" t="s">
         <v>177</v>
       </c>
       <c r="C6" s="99" t="s">
@@ -7771,12 +8553,12 @@
       <c r="E6" s="101">
         <v>10</v>
       </c>
-      <c r="F6" s="190">
+      <c r="F6" s="192">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="170"/>
+      <c r="B7" s="177"/>
       <c r="C7" s="102" t="s">
         <v>90</v>
       </c>
@@ -7786,10 +8568,10 @@
       <c r="E7" s="101">
         <v>10</v>
       </c>
-      <c r="F7" s="191"/>
+      <c r="F7" s="193"/>
     </row>
     <row r="8" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="189"/>
+      <c r="B8" s="191"/>
       <c r="C8" s="102" t="s">
         <v>88</v>
       </c>
@@ -7799,10 +8581,10 @@
       <c r="E8" s="101">
         <v>5</v>
       </c>
-      <c r="F8" s="192"/>
+      <c r="F8" s="194"/>
     </row>
     <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="195" t="s">
         <v>178</v>
       </c>
       <c r="C9" s="97" t="s">
@@ -7811,26 +8593,26 @@
       <c r="D9" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="196">
+      <c r="E9" s="198">
         <v>15</v>
       </c>
-      <c r="F9" s="196">
+      <c r="F9" s="198">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="92" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="194"/>
+      <c r="B10" s="196"/>
       <c r="C10" s="97" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="197"/>
-      <c r="F10" s="198"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="200"/>
     </row>
     <row r="11" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="194"/>
+      <c r="B11" s="196"/>
       <c r="C11" s="43" t="s">
         <v>141</v>
       </c>
@@ -7840,10 +8622,10 @@
       <c r="E11" s="104">
         <v>15</v>
       </c>
-      <c r="F11" s="198"/>
+      <c r="F11" s="200"/>
     </row>
     <row r="12" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="195"/>
+      <c r="B12" s="197"/>
       <c r="C12" s="43" t="s">
         <v>30</v>
       </c>
@@ -7853,10 +8635,10 @@
       <c r="E12" s="96">
         <v>5</v>
       </c>
-      <c r="F12" s="197"/>
+      <c r="F12" s="199"/>
     </row>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="187" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="102" t="s">
@@ -7868,12 +8650,12 @@
       <c r="E13" s="105">
         <v>4</v>
       </c>
-      <c r="F13" s="190">
+      <c r="F13" s="192">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="199"/>
+      <c r="B14" s="201"/>
       <c r="C14" s="102" t="s">
         <v>83</v>
       </c>
@@ -7883,10 +8665,10 @@
       <c r="E14" s="105">
         <v>4</v>
       </c>
-      <c r="F14" s="191"/>
+      <c r="F14" s="193"/>
     </row>
     <row r="15" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="199"/>
+      <c r="B15" s="201"/>
       <c r="C15" s="102" t="s">
         <v>81</v>
       </c>
@@ -7896,10 +8678,10 @@
       <c r="E15" s="105">
         <v>4</v>
       </c>
-      <c r="F15" s="191"/>
+      <c r="F15" s="193"/>
     </row>
     <row r="16" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="200"/>
+      <c r="B16" s="202"/>
       <c r="C16" s="99" t="s">
         <v>79</v>
       </c>
@@ -7909,7 +8691,7 @@
       <c r="E16" s="105">
         <v>4</v>
       </c>
-      <c r="F16" s="192"/>
+      <c r="F16" s="194"/>
     </row>
     <row r="17" spans="2:9" ht="92" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
@@ -7981,88 +8763,88 @@
       <c r="F22" s="111"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
     </row>
     <row r="24" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="184" t="s">
+      <c r="B24" s="175" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="184"/>
-      <c r="D24" s="184"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
       <c r="E24" s="115"/>
       <c r="F24" s="115"/>
       <c r="G24" s="116"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="181" t="s">
+      <c r="B25" s="169" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="181"/>
-      <c r="D25" s="181"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
       <c r="E25" s="110"/>
       <c r="F25" s="111"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="181" t="s">
+      <c r="B26" s="169" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="181"/>
-      <c r="D26" s="181"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="110"/>
       <c r="F26" s="111"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="181" t="s">
+      <c r="B27" s="169" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="181"/>
-      <c r="D27" s="181"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="169"/>
       <c r="E27" s="110"/>
       <c r="F27" s="111"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="181" t="s">
+      <c r="B28" s="169" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
       <c r="E28" s="110"/>
       <c r="F28" s="111"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="169" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
       <c r="E29" s="110"/>
       <c r="F29" s="111"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="201"/>
-      <c r="C30" s="201"/>
-      <c r="D30" s="201"/>
-      <c r="E30" s="201"/>
-      <c r="F30" s="201"/>
-      <c r="G30" s="201"/>
-      <c r="H30" s="201"/>
-      <c r="I30" s="201"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="202"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="202"/>
-      <c r="E31" s="202"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="202"/>
-      <c r="H31" s="202"/>
-      <c r="I31" s="202"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="117"/>
@@ -8257,11 +9039,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="F4:F5"/>
@@ -8276,13 +9053,18 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DCDE4-76CE-4E42-8443-63B72DF51527}">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -8646,7 +9428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DB33D4-FAA2-4BDA-92A6-1D9516D66243}">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -9004,7 +9786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6CA407-F51C-FD42-BD0A-AB834008E766}">
   <dimension ref="A1"/>
   <sheetViews>
